--- a/findx/Excel/Portal_传送门.xlsx
+++ b/findx/Excel/Portal_传送门.xlsx
@@ -564,8 +564,12 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>04C75B00</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -586,8 +590,12 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <v>1A891F24</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -608,8 +616,12 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <v>0A3B2669</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -630,8 +642,12 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <v>3081D2EF</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -652,8 +668,12 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <v>09CE9A28</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
